--- a/medicine/Handicap/De_corpo_e_alma/De_corpo_e_alma.xlsx
+++ b/medicine/Handicap/De_corpo_e_alma/De_corpo_e_alma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">De corpo e alma est un film documentaire mozambicain réalisé en 2010 par Matthieu Bron.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps et Âme raconte l’histoire de Victoria, Mariana et Vasco, trois jeunes Mozambicains, handicapés physiques, vivant dans la banlieue de Maputo. Leur vie quotidienne est marquée par de nombreux défis à la fois physiques, physiologiques et émotionnels, que chacun relève à sa manière, par son travail, par ses activités ou par son attitude. Le film explore ainsi le regard qu’ils portent sur eux-mêmes et sur les autres. Il aborde des questions universelles sur l’acceptation de soi et sur la manière de trouver sa place dans la société.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Matthieu Bron
 Production : Meetings Lda
